--- a/src/MahasiswaFile.xlsx
+++ b/src/MahasiswaFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Tubes-PPL\BeritaAcara\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81325FAD-BBFD-470E-BEAC-D3FD1227E34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE38929-9F90-45B9-8685-0CD5A0517605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{478EF092-2DA1-4A6F-911C-0BAA13168F94}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
